--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2101.299068771751</v>
+        <v>418158.5146855791</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.299068771751</v>
+        <v>418158.5146855791</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85463.64335644172</v>
+        <v>5836762.799593701</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85463.64335644172</v>
+        <v>5836762.799593701</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266203527.622964</v>
+        <v>47436500.23417186</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14179.80332168134</v>
+        <v>1232184.993355871</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26585.44422912583</v>
+        <v>2158590.363514295</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38989.55299840858</v>
+        <v>3084995.73367272</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51652.78005031942</v>
+        <v>4010472.584612103</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64316.00710223027</v>
+        <v>4935949.435551485</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76979.2341541411</v>
+        <v>5861426.286490866</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89642.4456988279</v>
+        <v>6786903.137430244</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>102305.6727507388</v>
+        <v>7712379.988369621</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115134.0375198504</v>
+        <v>8594778.595860239</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128016.4356935876</v>
+        <v>9487929.850871343</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140898.8338673248</v>
+        <v>10381081.10588245</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>153781.220306993</v>
+        <v>11274232.36089355</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>166663.6184807302</v>
+        <v>12167383.61590466</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>179546.0166544674</v>
+        <v>13060534.87091578</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>192428.4148282048</v>
+        <v>13953686.12592689</v>
       </c>
     </row>
   </sheetData>
